--- a/data/trans_orig/P44AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7F80F7-9A62-4DDC-A876-EB8A30582A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAA569F-CD71-4D09-9D2C-779DE4D70F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E111345F-8D73-4DEF-82DD-A7F70EBB2169}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3E28B3-3D9C-4F80-85D2-709055FAEEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="367">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -130,13 +130,13 @@
     <t>33,83%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>84,24%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>54,21%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -145,19 +145,19 @@
     <t>50,38%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -166,16 +166,16 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>66,53%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -196,7 +196,7 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>79,3%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -208,7 +208,7 @@
     <t>80,49%</t>
   </si>
   <si>
-    <t>20,7%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -241,31 +241,37 @@
     <t>25,76%</t>
   </si>
   <si>
+    <t>77,38%</t>
+  </si>
+  <si>
     <t>48,66%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
+    <t>22,62%</t>
+  </si>
+  <si>
     <t>51,34%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -280,357 +286,357 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>89,55%</t>
+    <t>89,56%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>10,79%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
     <t>11,83%</t>
   </si>
   <si>
@@ -640,91 +646,94 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>23,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>13,18%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
@@ -733,15 +742,9 @@
     <t>58,38%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
     <t>9,99%</t>
   </si>
   <si>
@@ -754,43 +757,43 @@
     <t>10,1%</t>
   </si>
   <si>
-    <t>35,23%</t>
+    <t>35,35%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>35,36%</t>
+    <t>35,5%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>64,77%</t>
+    <t>64,65%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>64,64%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -799,10 +802,10 @@
     <t>51,7%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>92,35%</t>
@@ -814,19 +817,19 @@
     <t>69,49%</t>
   </si>
   <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>7,65%</t>
@@ -838,10 +841,10 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -934,16 +937,16 @@
     <t>44,97%</t>
   </si>
   <si>
-    <t>85,8%</t>
+    <t>86,69%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -952,19 +955,16 @@
     <t>55,03%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>13,31%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -976,49 +976,55 @@
     <t>53,87%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -1033,55 +1039,43 @@
     <t>40,22%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>51,95%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>76,29%</t>
   </si>
   <si>
     <t>59,78%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>48,05%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -1096,55 +1090,55 @@
     <t>37,77%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885AC73F-0F37-4150-B2AB-A3349D593D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09343D0B-D59F-4931-A384-DBA56A4F66FC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,7 +2935,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2950,7 +2944,7 @@
         <v>2033</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>16</v>
@@ -2965,13 +2959,13 @@
         <v>3069</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,10 +2980,10 @@
         <v>2987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>22</v>
@@ -3001,7 +2995,7 @@
         <v>2144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
@@ -3016,13 +3010,13 @@
         <v>5131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3118,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,7 +3174,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3207,13 +3201,13 @@
         <v>5122</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3222,13 +3216,13 @@
         <v>5121</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3237,13 @@
         <v>3164</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3258,13 +3252,13 @@
         <v>2015</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3273,13 +3267,13 @@
         <v>5179</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3288,13 @@
         <v>3058</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3309,13 +3303,13 @@
         <v>2112</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3324,13 +3318,13 @@
         <v>5169</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3381,7 +3375,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3431,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3485,7 +3479,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,10 +3494,10 @@
         <v>4461</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>22</v>
@@ -3530,13 +3524,13 @@
         <v>4461</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3545,13 @@
         <v>2085</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3581,13 +3575,13 @@
         <v>4161</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3632,7 @@
         <v>17</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3700,13 @@
         <v>1037</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3721,13 +3715,13 @@
         <v>10250</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -3736,13 +3730,13 @@
         <v>11287</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>17919</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -3772,13 +3766,13 @@
         <v>12355</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M45" s="7">
         <v>28</v>
@@ -3787,13 +3781,13 @@
         <v>30274</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3802,13 @@
         <v>9215</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -3823,13 +3817,13 @@
         <v>6284</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3838,13 +3832,13 @@
         <v>15499</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3880,7 +3874,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3895,7 +3889,7 @@
         <v>17</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3945,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3975,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C4171F-A6C0-4BE0-9E4B-2DDF20CE5F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A77106-FE8E-4CF9-879C-6420E5056150}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,7 +3986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,7 +4159,7 @@
         <v>2870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -4180,10 +4174,10 @@
         <v>4008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4216,7 +4210,7 @@
         <v>1014</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
@@ -4231,13 +4225,13 @@
         <v>1014</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4404,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4440,7 +4434,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -4628,7 +4622,7 @@
         <v>2466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
@@ -4643,13 +4637,13 @@
         <v>2466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4658,7 @@
         <v>736</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
@@ -4679,7 +4673,7 @@
         <v>2225</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>16</v>
@@ -4694,13 +4688,13 @@
         <v>2961</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4709,7 @@
         <v>1927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -4745,13 +4739,13 @@
         <v>1927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4879,13 @@
         <v>1115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4900,13 +4894,13 @@
         <v>1115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4936,7 +4930,7 @@
         <v>2194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
@@ -4951,10 +4945,10 @@
         <v>4974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -5008,7 +5002,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5032,13 @@
         <v>1205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5053,13 +5047,13 @@
         <v>1205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5393,7 @@
         <v>1036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>16</v>
@@ -5414,7 +5408,7 @@
         <v>1988</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>16</v>
@@ -5450,7 +5444,7 @@
         <v>2284</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
@@ -5465,7 +5459,7 @@
         <v>2284</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>16</v>
@@ -5629,7 +5623,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5641,13 +5635,13 @@
         <v>2056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -5656,7 +5650,7 @@
         <v>1205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>16</v>
@@ -5671,13 +5665,13 @@
         <v>3261</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5686,13 @@
         <v>7157</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5707,13 +5701,13 @@
         <v>1101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -5722,13 +5716,13 @@
         <v>8258</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5737,13 @@
         <v>6041</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -5758,7 +5752,7 @@
         <v>2151</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>16</v>
@@ -5773,13 +5767,13 @@
         <v>8193</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5794,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5830,7 +5824,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,7 +5880,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6125,13 +6119,13 @@
         <v>3008</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -6140,13 +6134,13 @@
         <v>5823</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -6155,13 +6149,13 @@
         <v>8830</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6170,13 @@
         <v>15687</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -6191,13 +6185,13 @@
         <v>12645</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M45" s="7">
         <v>27</v>
@@ -6206,13 +6200,13 @@
         <v>28333</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6221,13 @@
         <v>7968</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -6242,13 +6236,13 @@
         <v>3166</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -6257,13 +6251,13 @@
         <v>11134</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,7 +6278,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -6293,13 +6287,13 @@
         <v>1205</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -6308,13 +6302,13 @@
         <v>1205</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,7 +6364,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6394,7 +6388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1593460-BAC4-4F2C-B9D8-5A25B4AAC6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3743F49-68B1-4B35-B9CD-2044CD9285A1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6411,7 +6405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6580,10 +6574,10 @@
         <v>1429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -6595,10 +6589,10 @@
         <v>1429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -6629,13 +6623,13 @@
         <v>1018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6644,13 +6638,13 @@
         <v>1018</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,7 +6765,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6786,7 +6780,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6801,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6810,13 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6831,13 +6825,13 @@
         <v>1373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6846,13 +6840,13 @@
         <v>3360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,10 +6861,10 @@
         <v>17690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -6882,10 +6876,10 @@
         <v>10896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -6897,13 +6891,13 @@
         <v>28586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6918,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6939,7 +6933,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6954,7 +6948,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,7 +7037,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7058,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7067,13 @@
         <v>3680</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -7088,10 +7082,10 @@
         <v>5117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>22</v>
@@ -7103,13 +7097,13 @@
         <v>8796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7118,13 @@
         <v>3437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7139,13 +7133,13 @@
         <v>424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7154,13 +7148,13 @@
         <v>3862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7190,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7211,7 +7205,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7309,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,10 +7324,10 @@
         <v>3448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -7345,10 +7339,10 @@
         <v>1769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -7360,13 +7354,13 @@
         <v>5216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7375,13 @@
         <v>2186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7396,13 +7390,13 @@
         <v>677</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7411,13 +7405,13 @@
         <v>2863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7462,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,10 +7581,10 @@
         <v>1658</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>22</v>
@@ -7602,10 +7596,10 @@
         <v>1637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>22</v>
@@ -7617,13 +7611,13 @@
         <v>3295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7632,13 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7653,13 +7647,13 @@
         <v>848</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -7668,13 +7662,13 @@
         <v>1867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,7 +7719,7 @@
         <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +7793,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7814,7 +7808,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7829,7 +7823,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,7 +7844,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7859,13 +7853,13 @@
         <v>1656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -7874,13 +7868,13 @@
         <v>1656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7892,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -7910,13 +7904,13 @@
         <v>2027</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7952,7 +7946,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7967,7 +7961,7 @@
         <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7982,7 +7976,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,7 +8032,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8056,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8104,10 +8098,10 @@
         <v>311</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -8116,13 +8110,13 @@
         <v>6996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -8131,13 +8125,13 @@
         <v>13526</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8146,13 @@
         <v>5593</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8167,13 +8161,13 @@
         <v>2943</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -8182,13 +8176,13 @@
         <v>8536</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,7 +8203,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8295,7 +8289,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8313,7 +8307,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -8328,7 +8322,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8343,7 +8337,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8352,13 @@
         <v>39939</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -8373,13 +8367,13 @@
         <v>28564</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="M40" s="7">
         <v>96</v>
@@ -8388,10 +8382,10 @@
         <v>68503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>338</v>
@@ -8427,10 +8421,10 @@
         <v>342</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M41" s="7">
         <v>34</v>
@@ -8439,13 +8433,13 @@
         <v>75328</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8460,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8481,7 +8475,7 @@
         <v>17</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8496,7 +8490,7 @@
         <v>17</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,37 +8564,37 @@
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8609,13 @@
         <v>57241</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H45" s="7">
         <v>79</v>
@@ -8630,13 +8624,13 @@
         <v>48540</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M45" s="7">
         <v>151</v>
@@ -8645,13 +8639,13 @@
         <v>105782</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8660,13 @@
         <v>94297</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H46" s="7">
         <v>58</v>
@@ -8681,13 +8675,13 @@
         <v>34809</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M46" s="7">
         <v>108</v>
@@ -8696,13 +8690,13 @@
         <v>129105</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,37 +8717,37 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,7 +8803,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAA569F-CD71-4D09-9D2C-779DE4D70F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{004B9A9F-4AD0-40D7-91D5-561B21E9A4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3E28B3-3D9C-4F80-85D2-709055FAEEE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E8F234E-37B6-474A-98F2-402DD3B5702D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="362">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -130,13 +130,13 @@
     <t>33,83%</t>
   </si>
   <si>
-    <t>84,24%</t>
+    <t>82,89%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>60,36%</t>
+    <t>51,1%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -145,10 +145,10 @@
     <t>50,38%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>50,4%</t>
@@ -157,7 +157,7 @@
     <t>20,03%</t>
   </si>
   <si>
-    <t>80,42%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -166,16 +166,16 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>65,22%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -196,7 +196,7 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>79,36%</t>
+    <t>79,1%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -208,7 +208,7 @@
     <t>80,49%</t>
   </si>
   <si>
-    <t>20,64%</t>
+    <t>20,9%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -241,37 +241,31 @@
     <t>25,76%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
     <t>48,66%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
     <t>51,34%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -283,25 +277,25 @@
     <t>55,38%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>16,68%</t>
   </si>
   <si>
     <t>84,66%</t>
@@ -310,16 +304,16 @@
     <t>21,78%</t>
   </si>
   <si>
-    <t>59,21%</t>
+    <t>61,31%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>49,14%</t>
@@ -328,19 +322,22 @@
     <t>15,34%</t>
   </si>
   <si>
-    <t>83,33%</t>
+    <t>83,32%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>63,52%</t>
+    <t>63,75%</t>
   </si>
   <si>
     <t>33,42%</t>
   </si>
   <si>
-    <t>12,27%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -355,274 +352,271 @@
     <t>68,14%</t>
   </si>
   <si>
-    <t>19,8%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>51,74%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>31,86%</t>
   </si>
   <si>
-    <t>80,2%</t>
+    <t>79,96%</t>
   </si>
   <si>
     <t>48,26%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2016 (Tasa respuesta: 0,72%)</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>63,72%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>14,86%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>48,27%</t>
@@ -631,10 +625,10 @@
     <t>41,56%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -646,94 +640,91 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>23,11%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
@@ -991,9 +982,6 @@
     <t>89,3%</t>
   </si>
   <si>
-    <t>61,31%</t>
-  </si>
-  <si>
     <t>40,89%</t>
   </si>
   <si>
@@ -1115,9 +1103,6 @@
   </si>
   <si>
     <t>62,23%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
   </si>
   <si>
     <t>86,6%</t>
@@ -1550,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09343D0B-D59F-4931-A384-DBA56A4F66FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40281F2-0D01-49AB-9ED0-8B9C4A65AA12}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2935,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2944,7 +2929,7 @@
         <v>2033</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>16</v>
@@ -2959,13 +2944,13 @@
         <v>3069</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,10 +2965,10 @@
         <v>2987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>22</v>
@@ -2995,7 +2980,7 @@
         <v>2144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
@@ -3010,13 +2995,13 @@
         <v>5131</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3159,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3186,13 @@
         <v>5122</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3216,13 +3201,13 @@
         <v>5121</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3222,13 @@
         <v>3164</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3252,13 +3237,13 @@
         <v>2015</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3267,13 +3252,13 @@
         <v>5179</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3273,13 @@
         <v>3058</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3303,13 +3288,13 @@
         <v>2112</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3318,13 +3303,13 @@
         <v>5169</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3375,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3416,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3479,7 +3464,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,10 +3479,10 @@
         <v>4461</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>22</v>
@@ -3524,13 +3509,13 @@
         <v>4461</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3530,13 @@
         <v>2085</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3575,13 +3560,13 @@
         <v>4161</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3685,13 @@
         <v>1037</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3715,13 +3700,13 @@
         <v>10250</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -3730,13 +3715,13 @@
         <v>11287</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3736,13 @@
         <v>17919</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -3766,13 +3751,13 @@
         <v>12355</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M45" s="7">
         <v>28</v>
@@ -3781,13 +3766,13 @@
         <v>30274</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3787,13 @@
         <v>9215</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -3817,13 +3802,13 @@
         <v>6284</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3832,13 +3817,13 @@
         <v>15499</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,37 +3844,37 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3930,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A77106-FE8E-4CF9-879C-6420E5056150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F270598-ADCF-4DF2-B808-539574766CDB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,7 +3971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4159,7 +4144,7 @@
         <v>2870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -4174,10 +4159,10 @@
         <v>4008</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4210,7 +4195,7 @@
         <v>1014</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
@@ -4225,13 +4210,13 @@
         <v>1014</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4389,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4434,7 +4419,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -4622,7 +4607,7 @@
         <v>2466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
@@ -4637,13 +4622,13 @@
         <v>2466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4643,7 @@
         <v>736</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
@@ -4673,7 +4658,7 @@
         <v>2225</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>16</v>
@@ -4688,13 +4673,13 @@
         <v>2961</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +4694,7 @@
         <v>1927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -4739,13 +4724,13 @@
         <v>1927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4864,13 @@
         <v>1115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4894,13 +4879,13 @@
         <v>1115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,7 +4903,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4930,7 +4915,7 @@
         <v>2194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
@@ -4945,10 +4930,10 @@
         <v>4974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -5002,7 +4987,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5017,13 @@
         <v>1205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5047,13 +5032,13 @@
         <v>1205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5378,7 @@
         <v>1036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>16</v>
@@ -5408,7 +5393,7 @@
         <v>1988</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>16</v>
@@ -5444,7 +5429,7 @@
         <v>2284</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
@@ -5459,7 +5444,7 @@
         <v>2284</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>16</v>
@@ -5623,7 +5608,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5635,13 +5620,13 @@
         <v>2056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -5650,7 +5635,7 @@
         <v>1205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>16</v>
@@ -5665,13 +5650,13 @@
         <v>3261</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5671,13 @@
         <v>7157</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5701,13 +5686,13 @@
         <v>1101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -5716,13 +5701,13 @@
         <v>8258</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5722,13 @@
         <v>6041</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -5752,7 +5737,7 @@
         <v>2151</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>16</v>
@@ -5767,13 +5752,13 @@
         <v>8193</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5779,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5824,7 +5809,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +5865,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6104,13 @@
         <v>3008</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -6134,13 +6119,13 @@
         <v>5823</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -6149,13 +6134,13 @@
         <v>8830</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6155,13 @@
         <v>15687</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -6185,13 +6170,13 @@
         <v>12645</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M45" s="7">
         <v>27</v>
@@ -6200,13 +6185,13 @@
         <v>28333</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6206,13 @@
         <v>7968</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -6236,13 +6221,13 @@
         <v>3166</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -6251,13 +6236,13 @@
         <v>11134</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6263,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -6287,13 +6272,13 @@
         <v>1205</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -6302,13 +6287,13 @@
         <v>1205</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,7 +6349,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3743F49-68B1-4B35-B9CD-2044CD9285A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5F7149-58DB-445A-924A-229C93506498}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6405,7 +6390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6574,7 +6559,7 @@
         <v>1429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -6589,7 +6574,7 @@
         <v>1429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -6623,7 +6608,7 @@
         <v>1018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
@@ -6638,7 +6623,7 @@
         <v>1018</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>16</v>
@@ -6765,7 +6750,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6780,7 +6765,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6795,7 +6780,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6795,13 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6825,13 +6810,13 @@
         <v>1373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6840,13 +6825,13 @@
         <v>3360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,10 +6846,10 @@
         <v>17690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -6876,10 +6861,10 @@
         <v>10896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -6891,13 +6876,13 @@
         <v>28586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6903,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6933,7 +6918,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6948,7 +6933,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,7 +7022,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7052,7 +7037,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7052,13 @@
         <v>3680</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -7082,10 +7067,10 @@
         <v>5117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>22</v>
@@ -7097,13 +7082,13 @@
         <v>8796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7103,13 @@
         <v>3437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7133,13 +7118,13 @@
         <v>424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7148,13 +7133,13 @@
         <v>3862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,7 +7175,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7205,7 +7190,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7294,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,10 +7309,10 @@
         <v>3448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -7339,10 +7324,10 @@
         <v>1769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -7354,13 +7339,13 @@
         <v>5216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7360,13 @@
         <v>2186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7390,13 +7375,13 @@
         <v>677</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7405,13 +7390,13 @@
         <v>2863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,7 +7447,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7551,7 @@
         <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,10 +7566,10 @@
         <v>1658</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>22</v>
@@ -7596,10 +7581,10 @@
         <v>1637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>22</v>
@@ -7611,13 +7596,13 @@
         <v>3295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7617,13 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7647,13 +7632,13 @@
         <v>848</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -7662,13 +7647,13 @@
         <v>1867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7704,7 @@
         <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7778,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7808,7 +7793,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7823,7 +7808,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7829,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7853,13 +7838,13 @@
         <v>1656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -7868,13 +7853,13 @@
         <v>1656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7877,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -7904,10 +7889,10 @@
         <v>2027</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>22</v>
@@ -7919,13 +7904,13 @@
         <v>7045</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,7 +7931,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7961,7 +7946,7 @@
         <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7976,7 +7961,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,7 +8017,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8050,7 +8035,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8065,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8080,7 +8065,7 @@
         <v>17</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8080,13 @@
         <v>6531</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -8110,13 +8095,13 @@
         <v>6996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -8125,13 +8110,13 @@
         <v>13526</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8131,13 @@
         <v>5593</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8161,13 +8146,13 @@
         <v>2943</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -8176,13 +8161,13 @@
         <v>8536</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,7 +8188,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8218,7 +8203,7 @@
         <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -8233,7 +8218,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8274,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8307,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -8322,7 +8307,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8337,7 +8322,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8337,13 @@
         <v>39939</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -8367,13 +8352,13 @@
         <v>28564</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="7">
         <v>96</v>
@@ -8382,13 +8367,13 @@
         <v>68503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8388,13 @@
         <v>59353</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
@@ -8418,13 +8403,13 @@
         <v>15975</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M41" s="7">
         <v>34</v>
@@ -8433,10 +8418,10 @@
         <v>75328</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>60</v>
@@ -8460,7 +8445,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8475,7 +8460,7 @@
         <v>17</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8490,7 +8475,7 @@
         <v>17</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,7 +8549,7 @@
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -8579,7 +8564,7 @@
         <v>17</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8594,7 +8579,7 @@
         <v>17</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8594,13 @@
         <v>57241</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H45" s="7">
         <v>79</v>
@@ -8624,13 +8609,13 @@
         <v>48540</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M45" s="7">
         <v>151</v>
@@ -8639,13 +8624,13 @@
         <v>105782</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,13 +8645,13 @@
         <v>94297</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>359</v>
+        <v>181</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H46" s="7">
         <v>58</v>
@@ -8675,13 +8660,13 @@
         <v>34809</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M46" s="7">
         <v>108</v>
@@ -8690,13 +8675,13 @@
         <v>129105</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,7 +8702,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8732,7 +8717,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -8747,7 +8732,7 @@
         <v>17</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,7 +8788,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
